--- a/other/input/AQWMS/sample_type_abbreviations_manual_edit.xlsx
+++ b/other/input/AQWMS/sample_type_abbreviations_manual_edit.xlsx
@@ -117,9 +117,6 @@
     <t>Laboratory Control Sample</t>
   </si>
   <si>
-    <t>Control Blank</t>
-  </si>
-  <si>
     <t>Original Solution</t>
   </si>
   <si>
@@ -163,6 +160,9 @@
   </si>
   <si>
     <t>Lab Blank</t>
+  </si>
+  <si>
+    <t>Calibration Blank</t>
   </si>
 </sst>
 </file>
@@ -204,9 +204,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,13 +523,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -543,7 +544,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -558,7 +559,7 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -569,25 +570,25 @@
         <f t="shared" si="0"/>
         <v>CB</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>32</v>
+      <c r="C4" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -602,7 +603,7 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -617,7 +618,7 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -632,7 +633,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -647,12 +648,12 @@
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -661,7 +662,7 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -676,7 +677,7 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -691,7 +692,7 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -706,12 +707,12 @@
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -720,7 +721,7 @@
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -735,7 +736,7 @@
         <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -750,12 +751,12 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -764,7 +765,7 @@
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -776,10 +777,10 @@
         <v>OS</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -794,12 +795,12 @@
         <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
         <v>13</v>
@@ -808,10 +809,10 @@
         <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -826,7 +827,7 @@
         <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -841,12 +842,12 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
@@ -855,7 +856,7 @@
         <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/other/input/AQWMS/sample_type_abbreviations_manual_edit.xlsx
+++ b/other/input/AQWMS/sample_type_abbreviations_manual_edit.xlsx
@@ -117,9 +117,6 @@
     <t>Laboratory Control Sample</t>
   </si>
   <si>
-    <t>Original Solution</t>
-  </si>
-  <si>
     <t>lab_name</t>
   </si>
   <si>
@@ -163,6 +160,9 @@
   </si>
   <si>
     <t>Calibration Blank</t>
+  </si>
+  <si>
+    <t>Other Project Sample</t>
   </si>
 </sst>
 </file>
@@ -178,18 +178,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -204,9 +198,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -506,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,13 +516,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -544,7 +537,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -559,7 +552,7 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -570,25 +563,25 @@
         <f t="shared" si="0"/>
         <v>CB</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>47</v>
+      <c r="C4" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -603,7 +596,7 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -618,7 +611,7 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -633,7 +626,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -648,12 +641,12 @@
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -662,7 +655,7 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -677,7 +670,7 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -692,7 +685,7 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -707,12 +700,12 @@
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -721,7 +714,7 @@
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -736,7 +729,7 @@
         <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -751,12 +744,12 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -765,7 +758,7 @@
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -777,10 +770,10 @@
         <v>OS</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -795,12 +788,12 @@
         <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
         <v>13</v>
@@ -809,10 +802,10 @@
         <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -827,7 +820,7 @@
         <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -842,12 +835,12 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
@@ -856,7 +849,7 @@
         <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
